--- a/Final/HUHF-IOT-TEST_005-CSV_POST_PROC/HUHF-IOT-TEST_005-CSV_COND8/cond8_loc2_processed.xlsx
+++ b/Final/HUHF-IOT-TEST_005-CSV_POST_PROC/HUHF-IOT-TEST_005-CSV_COND8/cond8_loc2_processed.xlsx
@@ -2674,7 +2674,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.04971596830985914</v>
+        <v>49.71596830985914</v>
       </c>
     </row>
   </sheetData>
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.01045296167247387</v>
+        <v>1.045296167247387</v>
       </c>
     </row>
   </sheetData>
